--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -552,7 +552,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Why So Sad? × Nike SB Dunk Low  
@@ -561,6 +561,16 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike GS Dunk "Halloween" collection 
+ハロウィ
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -562,7 +562,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Nike GS Dunk "Halloween" collection 
@@ -571,6 +571,26 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nike WMNS Air Jordan 1 Low "Turquoise" 抽選/販売店舗まとめ
+SNS  〜7/6 15:00(アプリ)
+https://www.sneakersnstuff.com/ja/product/55383/jordan-brand-wmns-air-jordan-1-low?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nike WMNS Air Jordan 1 Low "Turquoise" 抽選/販売店舗まとめ
+atmos  9:00〜販売開始
+https://launch.atmos-tokyo.com/jp/ja/t/8390034?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -582,11 +582,173 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/7発売 Nike WMNS Air Jordan 1 Low "Turquoise" 抽選/販売店舗まとめ
 atmos  9:00〜販売開始
 https://launch.atmos-tokyo.com/jp/ja/t/8390034?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nike WMNS Air Jordan 1 Low "Turquoise" 抽選/販売店舗まとめ
+NIKE  近日発売
+https://www.nike.com/jp/t/%E3%82%A8%E3%82%A2-%E3%82%B8%E3%83%A7%E3%83%BC%E3%83%80%E3%83%B3-1-low-%E3%82%A6%E3%82%A3%E3%83%A1%E3%83%B3%E3%82%BA%E3%82%B7%E3%83%A5%E3%83%BC%E3%82%BA-s9PX5W/DC0774-132?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  7/1 13:00 〜4 13:00
+https://shop.newbalance.jp/shop/pages/information_m2002rde.aspx?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8389862?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+THE APARTMENT  6/20 20:00〜21 12:00(WEB)
+https://www.the-apartment.net/?pid=168999557&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  6/24 13:00〜27 13:00(WEB)
+https://raffle.newbalance.jp/M2002RDF?_ga=2.70686352.149402668.1656040446-682188961.1619420127&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+BILLY'S  6/28 12:00～23:59(WEB)
+https://blog.billys-tokyo.net/7-2satrelease-new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+mita sneakers  6/29 14:00〜30 19:00(IG&amp;WEB)
+https://draw.mita-sneakers.co.jp/new-balance-m2002rd-restore-pack-2/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+Uptown  6/25 0:00〜7/1 0:00(WEB)
+https://uptowndeluxe.co.jp/raffle/detail/2937?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmos  6/29 9:00〜7/1 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/nb22rdfc?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+UNDEFEATED  6/28 18:00〜7/1 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220702_new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+BILLY'S
+ドレスコードあり
+渋谷店、原宿店、新宿店、札幌店、名古屋店、京都店、大阪南堀江店、大阪南船場店、広島店、福岡店、熊本店
+https://blog.billys-tokyo.net/7-2satrelease-new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+FREAK'S STORE  0:00〜販売開始
+https://www.freaksstore.com/category/2_NEW_BALANCE/?slide=modal&amp;utm_campaign=GxI05GgsI%2FI&amp;utm_medium=affiliate&amp;utm_source=Linkshare
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+P-ROOM THE WORLD  0:00〜販売開始
+https://www.freaksstore.com/category/2_PROOMTHEWORLD/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+2G  11:00〜販売開始
+https://kaeru.parco.jp/shop/detail/shop000025878?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ABC-MART GS  10:00〜販売開始
+https://gs.abc-mart.net/shop/g/g6277180001049/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  7/1 13:00 〜4 13:00(WEB)
+https://shop.newbalance.jp/shop/pages/information_m2002rde.aspx?slide=modal
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -744,11 +744,61 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
 ニューバランス  7/1 13:00 〜4 13:00(WEB)
 https://shop.newbalance.jp/shop/pages/information_m2002rde.aspx?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390059?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390058?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-2-low-nina-chanel-abney-white-malachite?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-2-nina-chanel-abney-white-gym-red?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】6/25・7/3発売 atmos × SNEAKER FREAKER × Asics Gel-Lyte III OG "Alley Cats" 抽選/販売店舗まとめ
+SNS  〜7/3 15:00(アプリ)
+https://www.sneakersnstuff.com/ja/product/53786/asics-sportstyle-gel-lyte-iii-x-atmos-x-sneaker-freaker?slide=modal
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -794,11 +794,41 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】6/25・7/3発売 atmos × SNEAKER FREAKER × Asics Gel-Lyte III OG "Alley Cats" 抽選/販売店舗まとめ
 SNS  〜7/3 15:00(アプリ)
 https://www.sneakersnstuff.com/ja/product/53786/asics-sportstyle-gel-lyte-iii-x-atmos-x-sneaker-freaker?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Sea Salt" 抽選/販売店舗まとめ
+ニューバランス  7/1 13:00～4 13:00(WEB)
+https://raffle.newbalance.jp/M990TC2/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  7/1 13:00〜4 13:00(WEB)
+https://raffle.newbalance.jp/M2002RDE/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmosドレスコードあり
+心斎橋店、京都店  
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -824,11 +824,54 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
 atmosドレスコードあり
 心斎橋店、京都店  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】6/18発売 adidas Originals Adimatic 3colors 抽選/販売店舗まとめ
+CONFIRMED  〜6/18 16:30(アプリ)
+https://shop.adidas.jp/products/GX1828/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】6/18発売 adidas Originals Adimatic 3colors 抽選/販売店舗まとめ
+atmos  6/6 12:00〜10 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/adibl?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】6/18発売 adidas Originals Adimatic 3colors 抽選/販売店舗まとめ
+A.T.A.D
+ドレスコードあり  
+https://media.atmos-tokyo.com/release-info/6-11satadidas-adimatic-atmos-blue/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】6/18発売 adidas Originals Adimatic 3colors 抽選/販売店舗まとめ
+atmos
+ドレスコードあり
+BLUE 表参道店、渋谷店、銀座店、千葉店、池袋店、ららぽーと横浜店、千駄ヶ谷店、沖縄店、大宮店、新宿店、名古屋パルコ店、ルクア大阪店、札幌ステラプレイス店、横浜店、心斎橋店、博多アミュ店、京都店、名古屋TGM店、金沢店、広島店  
+https://media.atmos-tokyo.com/release-info/6-11satadidas-adimatic-atmos-blue/?slide=modal
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】6/18発売 adidas Originals Adimatic 3colors 抽選/販売店舗まとめ
 atmos
@@ -876,6 +876,16 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike GS Dunk Low "Copper Swoosh" 
+Nike GS Dunk Low(ナイキ GS ダンク ロー)より、メタリックなスウッシュが際立つ新色”Copper Swoosh”(コッパー スウッシュ)が海外2022年に発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Nike GS Dunk Low "Copper Swoosh" 
@@ -886,6 +886,16 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 Low "White Toe" 
+Nike
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -887,7 +887,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Nike Air Jordan 1 Low "White Toe" 
@@ -896,6 +896,76 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2発売 Nike "World Champ" collection 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/jp-dr9511-100-nike-dunk-low-retro-se-emb?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2発売 Nike "World Champ" collection 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/jp-dr9866-100-air-force-1-07-lv8-emb?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2発売 Nike "World Champ" collection 抽選/販売店舗まとめ
+NIKE  近日発売
+https://www.nike.com/jp/t/%E3%83%8A%E3%82%A4%E3%82%AD-%E3%82%A8%E3%82%A2-%E3%83%95%E3%82%A9%E3%83%BC%E3%82%B9-1-lv8-%E3%82%B8%E3%83%A5%E3%83%8B%E3%82%A2%E3%82%B7%E3%83%A5%E3%83%BC%E3%82%BA-L3zbfL/DQ0300-100?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2発売 Nike "World Champ" collection 抽選/販売店舗まとめ
+UNDEFEATED  6/25 12:00〜7/1 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220702_nike-dunk-low-retro-se/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2発売 Nike "World Champ" collection 抽選/販売店舗まとめ
+UNDEFEATED  6/25 12:00〜7/1 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220702_nike-air-force-1-07-lv8-emb/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4発売 Nike Air Jordan 7 Retro "Citrus" 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-7-citrus?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4発売 Nike Air Jordan 7 Retro "Citrus" 抽選/販売店舗まとめ
+BILLY'S  9:00〜販売開始
+https://blog.billys-tokyo.net/7-2satrelease-air-jordan-7-retro/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -957,12 +957,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/2・7/4発売 Nike Air Jordan 7 Retro "Citrus" 抽選/販売店舗まとめ
 BILLY'S  9:00〜販売開始
 https://blog.billys-tokyo.net/7-2satrelease-air-jordan-7-retro/?slide=modal
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+ Nike WMNS Air Jordan 1 High OG "Varsity Red/Chenille"  
+Nike(ナイキ)のウィメンズモデルから鮮やかなレッドをあしらった"Varsity Red/Chenille"(バーシティレッド/シェニール)がリーク！海外2022年7月23日発売！
+情報が入り次第更新!!!</t>
         </is>
       </c>
     </row>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -436,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -556,8 +556,7 @@
         <is>
           <t>リーク情報!!!
 Why So Sad? × Nike SB Dunk Low  
-人々の心を明るく照らす団体、Why So Sad?(ワイ ソー サッド?)の活躍を映し出したSB Dunk Low(SBダンク ロー)が登場！海外2022年発売予定！
-情報が入り次第更新!!!</t>
+人々の心を明るく照らす団体、Why So Sad?(ワイ ソ</t>
         </is>
       </c>
     </row>
@@ -967,7 +966,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
  Nike WMNS Air Jordan 1 High OG "Varsity Red/Chenille"  
@@ -976,6 +975,117 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Dunk "Reverse Panda" 2types 抽選/販売店舗まとめ
+UNDEFEATED  7/2 12:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_nike-dunk-low-retro-dj6188-101/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Dunk "Reverse Panda" 2types 抽選/販売店舗まとめ
+UNDEFEATED  7/2 12:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_nike-dunk-high-retro-dj6189-101/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Dunk Low Retro "White/Black" 抽選/販売店舗まとめ
+UNDEFEATED  7/2 12:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_nike-dunk-low-gs-cw1590-100/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+UNDEFEATED  7/2 13:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_air-jordan-3-retro-gs/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-3-dark-iris?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Dunk Low "Judge Grey" 抽選/販売店舗まとめ
+GR8
+事前会員登録必須  7/3 12:00〜23:59(アプリ)
+https://gr8.jp/blog/nike-dunk-low-retro-dj6188-200/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Dunk Low "Judge Grey" 抽選/販売店舗まとめ
+UNDEFEATED  7/2 12:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_nike-dunk-low-retro-dj6188-200/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Force 1 Mid Premium "Black/Mettalic Silver" 
+スニーカー全体を覆うブラックアッパーとホワイトスウッシュによってインパクトのあるNike Air Force 1 Mid Premium "Black/Mettalic Silver"(ナイキ エアフォース1 ミッド プレミアム "ブラック/メタリック シルバー")が海外2022年7月2日発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Union × Nike Cortez 4colors 
+アメリカの伝説的セレクトショップUNION(ユニオン)とNike Cortez(ナイキ コルテッツ)のコラボモデルが登場！国内2022年6月28日発売！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike WMNS Air Jordan 1 Zoom Comfort "Fire Red/Hot Curry" 
+機能性抜群のハイブリッドモデルにビビットカラーで一際目立つ新カラー誕生！Nike WMNS Air Jordan 1 High Zoom Comfort "Fire Red/Hot Curry"(ナイキ ウィメンズ エアジョーダン1 ハイ ズーム コンフォート "ファイアレッド/ホットカリー")が海外2022年7月14日発売！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 Low "Vintage Grey" 
+Nike(ナイキ)のAir Jordan 1 Low(エアジョーダン1 ロー)より､シックなカラーの"Vintage Grey"(ヴィンテージグレー)が海外2022年7月2日に発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
@@ -1077,11 +1077,31 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Nike Air Jordan 1 Low "Vintage Grey" 
 Nike(ナイキ)のAir Jordan 1 Low(エアジョーダン1 ロー)より､シックなカラーの"Vintage Grey"(ヴィンテージグレー)が海外2022年7月2日に発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Dunk Low "Argon" 
+Ni
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Dunk Low "Argon" 
+Nike Dunk Low(ナイキ ダンク Low)より人気カラー"Argon"(アルゴン)が海外2022年に復刻予定！
 情報が入り次第更新!!!</t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
@@ -1097,11 +1097,154 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="0" t="inlineStr">
         <is>
           <t>リーク情報!!!
 Nike Dunk Low "Argon" 
 Nike Dunk Low(ナイキ ダンク Low)より人気カラー"Argon"(アルゴン)が海外2022年に復刻予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+atmos  6/28 9:00〜7/1 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/nwdkll5c?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+atmos pink  6/28 9:00〜7/1 8:59(アプリ)
+https://www.atmos-pink.com/shop/draw/nwdkll5c?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+UNDEFEATED  6/28 16:00〜7/2 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220703_nike-wmns-dunk-low-ll/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+atmos
+ドレスコードあり
+渋谷店、銀座店、千葉店、BLUE 表参道店、池袋店、原宿店、ららぽーと横浜店、千駄ヶ谷店、沖縄店、大宮店、新宿店、名古屋パルコ店、ルクア大阪店、札幌ステラプレイス店、横浜店、心斎橋店、博多アミュ店、京都店、名古屋TGM店、金沢店、広島店
+https://media.atmos-tokyo.com/release-info/7-3sunnike-w-dunk-low-ll/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/womens-dunk-low-lisa-leslie?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/2・7/4・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmosドレスコードあり
+心斎橋店、京都店  
+https://media.atmos-tokyo.com/release-info/7-2nikenew-balance/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+THE APARTMENT  6/24 20:00〜25 12:00(WEB)
+https://www.the-apartment.net/?pid=169073872&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+ニューバランス  6/24 13:00〜27 13:00(WEB)
+https://raffle.newbalance.jp/M990AL3/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+END.  国内配送可
+https://launches.endclothing.com/product/new-balance-m990al3-made-in-usa-m990al3?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+KITH  〜7/3 12:00(WEB)
+https://reservation.kithtokyo.com/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390068?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+atmos pink  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390069?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 Low Quilted "Triple White" 
+シンプル
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 Low Quilted "Triple White" 
+シンプル且つ、足元を引き立ててくれるホワイトカラーにキルトパッドのレイヤーが付いたNike Air Jordan 1 Low Quilted "Triple White" (ナイキ エアジョーダン1 ロー キルティング "トリプル ホワイト")がリリース！
 情報が入り次第更新!!!</t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuramochiosuke/Desktop/スニーカー記事/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FE507-2353-6540-BCB6-9021B2870524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7A4CAF-AE15-3645-B670-8EB2FE767701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -1,120 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuramochiosuke/Desktop/スニーカー記事/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7A4CAF-AE15-3645-B670-8EB2FE767701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>リーク情報!!!
-Up There × New Balance 2002R "Backyard Legends"   
-Up There × New Balance(アップゼア × ニューバランス)より裏庭にインスピレーションされた一足、2002R "Backyard Legends"(2002R "バックヤード レジェンズ" )が登場！海外2022年7月15日発売予定！
-情報が入り次第更新!!!</t>
-  </si>
-  <si>
-    <t>リーク情報!!!
-Nike Air Force 1 Low "LA Flea" 
-"エアフォース1"に待望の40周年記念モデルが登場！Nike Air Force 1 Low "LA Flea"(ナイキ エアフォース1 ロー "LA フリー")が海外2022年7月16日発売予定！
-情報が入り次第更新!!!</t>
-  </si>
-  <si>
-    <t>リーク情報!!!
-Nike Air Jordan 1 High OG "Gorge Green" 
-Nike(ナイキ)よりAir Jordan 1(エア ジョーダン 1)の新色"Gorge Green"(ゴージ グリーン)が海外2022年11月12日に発売予定！
-情報が入り次第更新!!!</t>
-  </si>
-  <si>
-    <t>リーク情報!!!
-Stussy × Nike Air Max "Fossil" 
-360°のビジブルエアを搭載した一足がコラボで再登場！Stussy × Nike Air Max "Fossil"(ステューシー × ナイキ エアマックス "フォッシル" )が海外2022年発売予定！
-情報が入り次第更新!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
-atmos
-ドレスコードあり
-渋谷店、銀座店、千葉店、BLUE 表参道店、池袋店、原宿店、ららぽーと横浜店、千駄ヶ谷店、沖縄店、大宮店、新宿店、名古屋パルコ店、ルクア大阪店、札幌ステラプレイス店、横浜店、心斎橋店、博多アミュ店、京都店、名古屋TGM店、金沢店、広島店
-https://media.atmos-tokyo.com/release-info/7-3sunnike-w-dunk-low-ll/?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
-BAIT  7/2 20:00〜5 19:59(アプリ)
-https://baitme.jp/blog/nike-hot-step-air-terra-nocta-DH4692-001?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
-atmos  7/1 9:00〜6 8:59(アプリ)
-https://www.atmos-tokyo.com/lp/nike-hot-step-nocta?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
-UNDEFEATED  6/30 12:00〜7/6 12:00(アプリ)
-https://undefeated.jp/blog/launch/20220707_hot_step_nocta/?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
-BAITドレスコードなし
-SHIBUYA PARCO店、OSAKA MINAMI店  
-https://baitme.jp/blog/nike-hot-step-air-terra-nocta-DH4692-001?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
-SNKRS  9:00〜販売開始
-https://www.nike.com/jp/launch/t/nocta-hot-step-triple-black?slide=modal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
-END.  国内配送可
-https://launches.endclothing.com/product/air-jordan-x-nina-chanel-abney-2-retro-dq0558-160?slide=modal
-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,8 +431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -460,63 +444,250 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Up There × New Balance 2002R "Backyard Legends"   
+Up There × New Balance(アップゼア × ニューバランス)より裏庭にインスピレーションされた一足、2002R "Backyard Legends"(2002R "バックヤード レジェンズ" )が登場！海外2022年7月15日発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Force 1 Low "LA Flea" 
+"エアフォース1"に待望の40周年記念モデルが登場！Nike Air Force 1 Low "LA Flea"(ナイキ エアフォース1 ロー "LA フリー")が海外2022年7月16日発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 High OG "Gorge Green" 
+Nike(ナイキ)よりAir Jordan 1(エア ジョーダン 1)の新色"Gorge Green"(ゴージ グリーン)が海外2022年11月12日に発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Stussy × Nike Air Max "Fossil" 
+360°のビジブルエアを搭載した一足がコラボで再登場！Stussy × Nike Air Max "Fossil"(ステューシー × ナイキ エアマックス "フォッシル" )が海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/3発売 Nike WMNS Dunk Low "Lisa Leslie" 抽選/販売店舗まとめ
+atmos
+ドレスコードあり
+渋谷店、銀座店、千葉店、BLUE 表参道店、池袋店、原宿店、ららぽーと横浜店、千駄ヶ谷店、沖縄店、大宮店、新宿店、名古屋パルコ店、ルクア大阪店、札幌ステラプレイス店、横浜店、心斎橋店、博多アミュ店、京都店、名古屋TGM店、金沢店、広島店
+https://media.atmos-tokyo.com/release-info/7-3sunnike-w-dunk-low-ll/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
+BAIT  7/2 20:00〜5 19:59(アプリ)
+https://baitme.jp/blog/nike-hot-step-air-terra-nocta-DH4692-001?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
+atmos  7/1 9:00〜6 8:59(アプリ)
+https://www.atmos-tokyo.com/lp/nike-hot-step-nocta?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
+UNDEFEATED  6/30 12:00〜7/6 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220707_hot_step_nocta/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
+BAITドレスコードなし
+SHIBUYA PARCO店、OSAKA MINAMI店  
+https://baitme.jp/blog/nike-hot-step-air-terra-nocta-DH4692-001?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 Nocta × Nike Hot Step Air Terra 4colors 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/nocta-hot-step-triple-black?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+END.  国内配送可
+https://launches.endclothing.com/product/air-jordan-x-nina-chanel-abney-2-retro-dq0558-160?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+atmos  7/5 9:00〜7 8:59 (アプリ)
+https://www.atmos-tokyo.com/shop/draw/aj2rl60c?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+atmos  7/5 9:00〜7 8:59 (アプリ)
+https://www.atmos-tokyo.com/shop/draw/aj2rs58c?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-2-low-nina-chanel-abney-white-malachite?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/8発売 Nina Chanel Abney × Nike WMNS Air Jordan 2 2types 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-2-nina-chanel-abney-white-gym-red?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/11発売 Nike Air Jordan 1 Low "Grey and Blue" 抽選/販売店舗まとめ
+atmos  7/5 9:00〜8 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/waj1gabc?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/11発売 Nike Air Jordan 1 Low "Grey and Blue" 抽選/販売店舗まとめ
+atmos pink  7/5 9:00〜8 8:59(アプリ)
+https://www.atmos-pink.com/shop/draw/waj1gabc?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+UNDEFEATED  7/2 13:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_air-jordan-3-retro-gs/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+KITH  〜7/3 12:00(WEB)
+https://reservation.kithtokyo.com/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+UNION TOKYO  7/3 9:00〜4 9:00(アプリ)
+https://www.uniontokyo.jp/blogs/launches/air-jordan-3-retro-2?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+atmos  7/5 9:00〜8 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/aj3rcdl1?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+Uptown  7/2 9:00〜8 12:00(WEB)
+https://uptowndeluxe.co.jp/raffle/detail/2695?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+atmos pink  7/5 9:00〜8 8:59(アプリ)
+https://www.atmos-pink.com/shop/draw/aj3gpdl1?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+Uptown  7/2 9:00〜8 12:00(WEB)
+https://uptowndeluxe.co.jp/raffle/detail/2922?slide=modal
+</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -678,11 +678,445 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
 Uptown  7/2 9:00〜8 12:00(WEB)
 https://uptowndeluxe.co.jp/raffle/detail/2922?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike WMNS Dunk High "Fossil Stone" 
+Nike Dunk High(ナイキ ダンク ハイ)から、ニュートラルなカラーが登場！"Fossil Stone"(フォッシル ストーン)が海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Force 1 Low "Since '82" 2colors 
+Nike Air Force 1 Low(ナイキ エアフォース1 ロー)から生誕40周年を祝う"Since '82"(シンス '82)が登場！海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+SNKRS  9:00〜販売開始
+https://www.nike.com/jp/launch/t/air-jordan-3-dark-iris?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike Air Jordan 3 "Dark Iris" 抽選/販売店舗まとめ
+BILLY'S  9:00〜販売開始
+https://blog.billys-tokyo.net/7-9satrelease-air-jordan-3-retro/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+THE APARTMENT  7/1 12:00〜2 12:00(WEB)
+https://www.the-apartment.net/?pid=169153520&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+ニューバランス  7/1 13:00〜4 13:00(WEB)
+https://raffle.newbalance.jp/M990TE2/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+BILLY'S  7/4 12:00～23:59(WEB)
+https://blog.billys-tokyo.net/new-balance-m990te2/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+BILLY'S 渋谷店
+店舗受取  7/4 12:00～23:59(WEB)
+https://blog.billys-tokyo.net/new-balance-m990te2/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+KITH  〜7/5 12:00(WEB)
+https://reservation.kithtokyo.com/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+Dice&amp;Dice  7/4 13:00〜6 10:00(メール)
+https://www.instagram.com/p/Cfk6-UDvpaf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+UNDEFEATED  7/1 13:00〜6 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220707_new-balance-m990te2/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+atmos  7/5 9:00〜7 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/nb99tec1?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+NUBIAN  7/4 20:00〜7 20:00(WEB)
+https://docs.google.com/forms/d/e/1FAIpQLSdUW4Kn7i4O8oyMs4MADZnjQHLprLLxNC3NZfSfPFXB6u89zw/viewform?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/7発売 New Balance 990V2 "Black/True Camo" 抽選/販売店舗まとめ 
+ABC-MART GS  アナウンス待ち
+https://www.instagram.com/p/CfkxHBHtsIo/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+NUBIAN  7/4 20:00〜7 20:00(WEB)
+https://docs.google.com/forms/d/e/1FAIpQLSeo-L7oHosBFbIIBaAmxnJHjJrrvy5qZm6IXa-wboYRGef8RA/viewform?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  7/1 13:00〜4 13:00(WEB)
+https://raffle.newbalance.jp/M2002RDE/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8389862?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+coverchord  7/2 21:00～3 23:59 (WEB)
+https://coverchord.com/pages/new-balance-m2002rdd?_kx=zPBKbZ8wq8PeNRvtqC-Q8s9andCjLFyPZwDJn4VKNCY%3D.WizTz6&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ABC-MART GS  10:00〜販売開始
+https://gs.abc-mart.net/shop/g/g6277180001049/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+FREAK'S STORE  0:00〜販売開始
+https://www.freaksstore.com/category/2_NEW_BALANCE/?slide=modal&amp;utm_campaign=GxI05GgsI%2FI&amp;utm_medium=affiliate&amp;utm_source=Linkshare
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+P-ROOM THE WORLD  0:00〜販売開始
+https://www.freaksstore.com/category/2_PROOMTHEWORLD/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+2G  11:00〜販売開始
+https://kaeru.parco.jp/shop/detail/shop000025878?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmosドレスコードあり
+心斎橋店、京都店  
+https://media.atmos-tokyo.com/release-info/7-2nikenew-balance/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+BILLY'S
+ドレスコードあり
+渋谷店、原宿店、新宿店、札幌店、名古屋店、京都店、大阪南堀江店、大阪南船場店、広島店、福岡店、熊本店
+https://blog.billys-tokyo.net/7-2satrelease-new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+THE APARTMENT  6/20 20:00〜21 12:00(WEB)
+https://www.the-apartment.net/?pid=168999557&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+ニューバランス  6/24 13:00〜27 13:00(WEB)
+https://raffle.newbalance.jp/M2002RDF?_ga=2.70686352.149402668.1656040446-682188961.1619420127&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+BILLY'S  6/28 12:00～23:59(WEB)
+https://blog.billys-tokyo.net/7-2satrelease-new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+mita sneakers  6/29 14:00〜30 19:00(IG&amp;WEB)
+https://draw.mita-sneakers.co.jp/new-balance-m2002rd-restore-pack-2/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+Uptown  6/25 0:00〜7/1 0:00(WEB)
+https://uptowndeluxe.co.jp/raffle/detail/2937?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+atmos  6/29 9:00〜7/1 8:59(アプリ)
+https://www.atmos-tokyo.com/shop/draw/nb22rdfc?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/4・7/8・7/9発売 New Balance 2002R "Protection Pack" 抽選/販売店舗まとめ
+UNDEFEATED  6/28 18:00〜7/1 12:00(アプリ)
+https://undefeated.jp/blog/launch/20220702_new-balance-m2002rdf/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+THE APARTMENT  6/24 20:00〜25 12:00(WEB)
+https://www.the-apartment.net/?pid=169073872&amp;slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+ニューバランス  6/24 13:00〜27 13:00(WEB)
+https://raffle.newbalance.jp/M990AL3/form?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+NUBIAN  7/4 20:00〜7 20:00(WEB)
+https://docs.google.com/forms/d/e/1FAIpQLScTGBDv5OLg_nbV1DYj7bUC24GgHAVFudv1ZGuAIpO6xN_psQ/viewform?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 New Balance 990V3 "Sea Salt/Rain Cloud" 抽選/販売店舗まとめ
+END.  国内配送可
+https://launches.endclothing.com/product/new-balance-m990al3-made-in-usa-m990al3?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/6・7/8・7/9発売 Nike Dunk Low "Judge Grey" 抽選/販売店舗まとめ
+GR8
+事前会員登録必須  7/3 12:00〜23:59(アプリ)
+https://gr8.jp/blog/nike-dunk-low-retro-dj6188-200/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/6・7/8・7/9発売 Nike Dunk Low "Judge Grey" 抽選/販売店舗まとめ
+UNDEFEATED  7/2 12:00〜8 12:00 (アプリ)
+https://undefeated.jp/blog/launch/20220709_nike-dunk-low-retro-dj6188-200/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/6・7/8・7/9発売 Nike Dunk Low "Judge Grey" 抽選/販売店舗まとめ
+NIKE
+アプリ限定  9:00〜販売開始
+https://www.nike.com/jp/t/%E3%80%90nike-%E3%82%A2%E3%83%97%E3%83%AA%E9%99%90%E5%AE%9A%E8%B2%A9%E5%A3%B2%E3%80%91%E3%83%8A%E3%82%A4%E3%82%AD-%E3%83%80%E3%83%B3%E3%82%AF-low-%E3%83%AC%E3%83%88%E3%83%AD-%E3%83%A1%E3%83%B3%E3%82%BA%E3%82%B7%E3%83%A5%E3%83%BC%E3%82%BA-DPV4l1/DJ6188-200?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Two 18 × Nike Air Jordan 2 Low 
+ビターな風合いに仕上げられた一足、Two 18 × Nike Air Jordan 2 Low(トゥ 18 × ナイキ エアジョーダン2 ロー)が登場！海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Dunk High "Yellow/Black" 
+Nike Dunk High(ナイキ ダンク ハイ)よりアイオワ大学のカレッジカラーを彷彿させる新色"Yellow/Black"(イエロー/ブラック)が海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Jordan 1 High OG "Gorge Green" 
+Nike(ナイキ)よりAir Jordan 1(エアジョーダン1)の新色"Gorge Green"(ゴージ グリーン)が海外2022年11月12日に発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike WMNS Dunk Low "Triple White" 抽選/販売店舗まとめ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/9発売 Nike WMNS Dunk Low "Triple White" 抽選/販売店舗まとめ
+Forget-me-nots  7/4 12:00〜7/6 12:00(アプリ)
+https://forgetmenots.jp/blogs/news/7-9-nike-wmns-dunk-low-special-offer?slide=modal
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1112,11 +1112,92 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/9発売 Nike WMNS Dunk Low "Triple White" 抽選/販売店舗まとめ
 Forget-me-nots  7/4 12:00〜7/6 12:00(アプリ)
 https://forgetmenots.jp/blogs/news/7-9-nike-wmns-dunk-low-special-offer?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Air Force 1 Low "Black/White" 
+Nike Air Force 1 Low(ナイキ エアフォース1 ロー)から、人気カラーのディテールをアレンジした"Black/White"(ブラック/ホワイト)が登場！海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/11発売 Nike Air Jordan 1 Low "Grey and Blue" 抽選/販売店舗まとめ
+ABC-MART GS
+店舗受け取り  7/5 10:00～19:00(WEB)
+https://gs.abc-mart.net/feature/9376/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/11発売 Nike Air Jordan 1 Low "Grey and Blue" 抽選/販売店舗まとめ
+ABC-MART GS  9:00〜販売開始
+https://gs.abc-mart.net/calendar/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+Nike Dunk Low "Cartoon" 
+漫画やアニメからインスパイアされたコミカルな一足が新たに登場！Nike Dunk Low "Cartoon"(ナイキ ダンク ロー "カートゥーン")が海外2022年発売予定！
+情報が入り次第更新!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/16発売 New Balance M2002R 3colors 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390109?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/16発売 New Balance M2002R 3colors 抽選/販売店舗まとめ
+UNDEFEATED  アナウンス待ち
+https://undefeated.jp/blog/launch/?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/16発売 New Balance M2002R 3colors 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390112?slide=modal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【販売リンクあり】7/16発売 New Balance M2002R 3colors 抽選/販売店舗まとめ
+atmos  アナウンス待ち
+https://launch.atmos-tokyo.com/jp/ja/t/8390110?slide=modal
 </t>
         </is>
       </c>

--- a/sneaker.xlsx
+++ b/sneaker.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1193,12 +1193,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">【販売リンクあり】7/16発売 New Balance M2002R 3colors 抽選/販売店舗まとめ
 atmos  アナウンス待ち
 https://launch.atmos-tokyo.com/jp/ja/t/8390110?slide=modal
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>リーク情報!!!
+7/9発売 Supreme 2022SS Week20 
+Supreme(シュプリーム)の2022春夏 Week20(ウィーク20)から、Griffin Studio(グリフィン スタジオ)とVans(バンズ)とのコラボアイテムが2022年7月9日発売予定！
+情報が入り次第更新!!!</t>
         </is>
       </c>
     </row>
